--- a/data_omp_1.xlsx
+++ b/data_omp_1.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26685" windowHeight="12525"/>
+    <workbookView windowWidth="26685" windowHeight="12525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data_omp_1" sheetId="1" r:id="rId1"/>
+    <sheet name="data_omp_2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="9">
   <si>
     <t>QUANTITY</t>
   </si>
@@ -36,17 +37,23 @@
   <si>
     <t>A*A*A*A</t>
   </si>
+  <si>
+    <t>SCALE</t>
+  </si>
+  <si>
+    <t>线程数/矩阵规模</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -72,18 +79,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -95,26 +95,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,6 +127,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -143,21 +150,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -171,9 +163,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,7 +186,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,8 +207,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,7 +230,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,49 +356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,19 +374,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,97 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,30 +439,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -480,17 +463,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -502,6 +474,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,9 +510,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,142 +541,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,11 +696,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1483,7 +1490,1058 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>加速比</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr altLang="zh-CN"/>
+              <a:t> — </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>线程数</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data_omp_2!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>data_omp_2!$G$1:$W$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data_omp_2!$G$2:$W$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5813</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3681</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7632</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.386</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.782</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2579</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2816</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7418</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6914</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9543</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2643</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9438</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0889</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data_omp_2!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>data_omp_2!$G$1:$W$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data_omp_2!$G$3:$W$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8528</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0905</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9958</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5051</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.2081</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7724</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.2019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.8003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data_omp_2!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>data_omp_2!$G$1:$W$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data_omp_2!$G$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5582</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6507</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0859</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3731</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1933</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6736</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5481</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0837</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.7873</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data_omp_2!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>data_omp_2!$G$1:$W$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data_omp_2!$G$5:$W$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.816</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1389</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8687</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5292</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9047</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4556</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.364</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0857</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.5177</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.6831</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.2703</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.4317</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.419</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data_omp_2!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>data_omp_2!$G$1:$W$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data_omp_2!$G$6:$W$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5236</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6917</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8152</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6943</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6259</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.4513</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.1812</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.6924</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.942</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4664</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.7028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="105526576"/>
+        <c:axId val="812130640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="105526576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="812130640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="812130640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="105526576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2039,6 +3097,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2061,6 +3635,41 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10512425" y="933450"/>
+        <a:ext cx="5486400" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9153525" y="1323975"/>
         <a:ext cx="5486400" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2334,7 +3943,7 @@
   <sheetPr/>
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -2357,55 +3966,55 @@
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>1</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>2</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>4</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="3">
         <v>6</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="3">
         <v>8</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="3">
         <v>10</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="3">
         <v>12</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="3">
         <v>14</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="3">
         <v>16</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="3">
         <v>18</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1" s="3">
         <v>20</v>
       </c>
-      <c r="T1" s="4">
+      <c r="T1" s="3">
         <v>22</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1" s="3">
         <v>24</v>
       </c>
-      <c r="V1" s="4">
+      <c r="V1" s="3">
         <v>26</v>
       </c>
-      <c r="W1" s="4">
+      <c r="W1" s="3">
         <v>28</v>
       </c>
-      <c r="X1" s="4">
+      <c r="X1" s="3">
         <v>30</v>
       </c>
-      <c r="Y1" s="4">
+      <c r="Y1" s="3">
         <v>32</v>
       </c>
     </row>
@@ -2419,7 +4028,7 @@
       <c r="C2">
         <v>1.77967</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="5">
@@ -2484,7 +4093,7 @@
       <c r="C3">
         <v>2.94352</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="5">
@@ -2549,7 +4158,7 @@
       <c r="C4">
         <v>4.40451</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="5">
@@ -3113,4 +4722,1256 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:W81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.2" defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="3.7" style="1" customWidth="1"/>
+    <col min="7" max="23" width="3" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:23">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3">
+        <v>14</v>
+      </c>
+      <c r="O1" s="3">
+        <v>16</v>
+      </c>
+      <c r="P1" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>20</v>
+      </c>
+      <c r="R1" s="3">
+        <v>22</v>
+      </c>
+      <c r="S1" s="3">
+        <v>24</v>
+      </c>
+      <c r="T1" s="3">
+        <v>26</v>
+      </c>
+      <c r="U1" s="3">
+        <v>28</v>
+      </c>
+      <c r="V1" s="3">
+        <v>30</v>
+      </c>
+      <c r="W1" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2">
+        <v>128</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1.86513</v>
+      </c>
+      <c r="F2" s="4">
+        <v>128</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1.8651</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2.4116</v>
+      </c>
+      <c r="J2" s="5">
+        <v>2.5813</v>
+      </c>
+      <c r="K2" s="5">
+        <v>3.3681</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1.7632</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.386</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.782</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.2579</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.2816</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.7418</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.6914</v>
+      </c>
+      <c r="S2" s="5">
+        <v>3.9543</v>
+      </c>
+      <c r="T2" s="5">
+        <v>4.2643</v>
+      </c>
+      <c r="U2" s="5">
+        <v>4.9438</v>
+      </c>
+      <c r="V2" s="5">
+        <v>2.0889</v>
+      </c>
+      <c r="W2" s="5">
+        <v>2.8222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>128</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2.41156</v>
+      </c>
+      <c r="F3" s="4">
+        <v>256</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1.5019</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2.6837</v>
+      </c>
+      <c r="J3" s="5">
+        <v>3.338</v>
+      </c>
+      <c r="K3" s="5">
+        <v>3.6736</v>
+      </c>
+      <c r="L3" s="5">
+        <v>3.8528</v>
+      </c>
+      <c r="M3" s="5">
+        <v>4.5012</v>
+      </c>
+      <c r="N3" s="5">
+        <v>2.9011</v>
+      </c>
+      <c r="O3" s="5">
+        <v>4.0905</v>
+      </c>
+      <c r="P3" s="5">
+        <v>2.9958</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>2.5051</v>
+      </c>
+      <c r="R3" s="5">
+        <v>2.5018</v>
+      </c>
+      <c r="S3" s="5">
+        <v>4.2081</v>
+      </c>
+      <c r="T3" s="5">
+        <v>3.5304</v>
+      </c>
+      <c r="U3" s="5">
+        <v>3.7724</v>
+      </c>
+      <c r="V3" s="5">
+        <v>4.2019</v>
+      </c>
+      <c r="W3" s="5">
+        <v>5.8003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>128</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2.58133</v>
+      </c>
+      <c r="F4" s="4">
+        <v>512</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1.7981</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3.1703</v>
+      </c>
+      <c r="J4" s="5">
+        <v>3.978</v>
+      </c>
+      <c r="K4" s="5">
+        <v>5.5582</v>
+      </c>
+      <c r="L4" s="5">
+        <v>4.9365</v>
+      </c>
+      <c r="M4" s="5">
+        <v>5.2288</v>
+      </c>
+      <c r="N4" s="5">
+        <v>4.6507</v>
+      </c>
+      <c r="O4" s="5">
+        <v>6.0859</v>
+      </c>
+      <c r="P4" s="5">
+        <v>6.3731</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>5.41</v>
+      </c>
+      <c r="R4" s="5">
+        <v>5.1933</v>
+      </c>
+      <c r="S4" s="5">
+        <v>6.6736</v>
+      </c>
+      <c r="T4" s="5">
+        <v>6.5481</v>
+      </c>
+      <c r="U4" s="5">
+        <v>6.0837</v>
+      </c>
+      <c r="V4" s="5">
+        <v>5.7873</v>
+      </c>
+      <c r="W4" s="5">
+        <v>6.2587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>128</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>3.36813</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1024</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1.816</v>
+      </c>
+      <c r="I5" s="5">
+        <v>3.1903</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3.875</v>
+      </c>
+      <c r="K5" s="5">
+        <v>6.1389</v>
+      </c>
+      <c r="L5" s="5">
+        <v>5.8687</v>
+      </c>
+      <c r="M5" s="5">
+        <v>6.5292</v>
+      </c>
+      <c r="N5" s="5">
+        <v>6.9047</v>
+      </c>
+      <c r="O5" s="5">
+        <v>7.0615</v>
+      </c>
+      <c r="P5" s="5">
+        <v>7.4556</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>6.364</v>
+      </c>
+      <c r="R5" s="5">
+        <v>7.0857</v>
+      </c>
+      <c r="S5" s="5">
+        <v>7.5177</v>
+      </c>
+      <c r="T5" s="5">
+        <v>7.6831</v>
+      </c>
+      <c r="U5" s="5">
+        <v>7.2703</v>
+      </c>
+      <c r="V5" s="5">
+        <v>7.4317</v>
+      </c>
+      <c r="W5" s="5">
+        <v>7.419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>128</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1.76321</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2048</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1.6502</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2.9013</v>
+      </c>
+      <c r="J6" s="5">
+        <v>4.5236</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5.6917</v>
+      </c>
+      <c r="L6" s="5">
+        <v>6.4146</v>
+      </c>
+      <c r="M6" s="5">
+        <v>7.295</v>
+      </c>
+      <c r="N6" s="5">
+        <v>7.8152</v>
+      </c>
+      <c r="O6" s="5">
+        <v>8.6943</v>
+      </c>
+      <c r="P6" s="5">
+        <v>8.6259</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>9.0501</v>
+      </c>
+      <c r="R6" s="5">
+        <v>8.4513</v>
+      </c>
+      <c r="S6" s="5">
+        <v>8.1812</v>
+      </c>
+      <c r="T6" s="5">
+        <v>8.6924</v>
+      </c>
+      <c r="U6" s="5">
+        <v>7.942</v>
+      </c>
+      <c r="V6" s="5">
+        <v>8.4664</v>
+      </c>
+      <c r="W6" s="5">
+        <v>8.7028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>128</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>0.385965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>128</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>0.782033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>0.257941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>128</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>0.281575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>0.741762</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>128</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>0.691429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>128</v>
+      </c>
+      <c r="B13">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>3.95425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>128</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>4.26432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>128</v>
+      </c>
+      <c r="B15">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>4.94382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>128</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>2.08891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>128</v>
+      </c>
+      <c r="B17">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>2.82216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>256</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1.50187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>256</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>2.68371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>256</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>3.33801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>256</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>3.67355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>256</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>3.85275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>256</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>4.5012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>256</v>
+      </c>
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>2.90113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>256</v>
+      </c>
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>4.09051</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>256</v>
+      </c>
+      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>2.99575</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>256</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>2.50511</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>256</v>
+      </c>
+      <c r="B28">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>2.50178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>256</v>
+      </c>
+      <c r="B29">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>4.20814</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>256</v>
+      </c>
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>3.53044</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>256</v>
+      </c>
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>3.77235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>256</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>4.20186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>256</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>5.80027</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>512</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>1.7981</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>512</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>3.17029</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>512</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>3.97795</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>512</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>5.5582</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>512</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>4.93653</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>512</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>5.2288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>512</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>4.65068</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>512</v>
+      </c>
+      <c r="B41">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>6.08586</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>512</v>
+      </c>
+      <c r="B42">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>6.37311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>512</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>5.40999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>512</v>
+      </c>
+      <c r="B44">
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <v>5.19325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>512</v>
+      </c>
+      <c r="B45">
+        <v>24</v>
+      </c>
+      <c r="C45">
+        <v>6.67361</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>512</v>
+      </c>
+      <c r="B46">
+        <v>26</v>
+      </c>
+      <c r="C46">
+        <v>6.54808</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>512</v>
+      </c>
+      <c r="B47">
+        <v>28</v>
+      </c>
+      <c r="C47">
+        <v>6.08371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>512</v>
+      </c>
+      <c r="B48">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <v>5.78733</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>512</v>
+      </c>
+      <c r="B49">
+        <v>32</v>
+      </c>
+      <c r="C49">
+        <v>6.25868</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>1024</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>1.81602</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>1024</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>3.19026</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>1024</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>3.87504</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>1024</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>6.13893</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>1024</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>5.86869</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>1024</v>
+      </c>
+      <c r="B55">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>6.52918</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>1024</v>
+      </c>
+      <c r="B56">
+        <v>14</v>
+      </c>
+      <c r="C56">
+        <v>6.9047</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>1024</v>
+      </c>
+      <c r="B57">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>7.0615</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>1024</v>
+      </c>
+      <c r="B58">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>7.45555</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>1024</v>
+      </c>
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>6.36398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>1024</v>
+      </c>
+      <c r="B60">
+        <v>22</v>
+      </c>
+      <c r="C60">
+        <v>7.08572</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>1024</v>
+      </c>
+      <c r="B61">
+        <v>24</v>
+      </c>
+      <c r="C61">
+        <v>7.5177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>1024</v>
+      </c>
+      <c r="B62">
+        <v>26</v>
+      </c>
+      <c r="C62">
+        <v>7.6831</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>1024</v>
+      </c>
+      <c r="B63">
+        <v>28</v>
+      </c>
+      <c r="C63">
+        <v>7.27026</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>1024</v>
+      </c>
+      <c r="B64">
+        <v>30</v>
+      </c>
+      <c r="C64">
+        <v>7.43171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>1024</v>
+      </c>
+      <c r="B65">
+        <v>32</v>
+      </c>
+      <c r="C65">
+        <v>7.419</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>2048</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>1.65016</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>2048</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>2.90129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>2048</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>4.52364</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>2048</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>5.69172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>2048</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>6.41455</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>2048</v>
+      </c>
+      <c r="B71">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>7.29501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>2048</v>
+      </c>
+      <c r="B72">
+        <v>14</v>
+      </c>
+      <c r="C72">
+        <v>7.81522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>2048</v>
+      </c>
+      <c r="B73">
+        <v>16</v>
+      </c>
+      <c r="C73">
+        <v>8.6943</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>2048</v>
+      </c>
+      <c r="B74">
+        <v>18</v>
+      </c>
+      <c r="C74">
+        <v>8.62587</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>2048</v>
+      </c>
+      <c r="B75">
+        <v>20</v>
+      </c>
+      <c r="C75">
+        <v>9.05007</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>2048</v>
+      </c>
+      <c r="B76">
+        <v>22</v>
+      </c>
+      <c r="C76">
+        <v>8.45133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>2048</v>
+      </c>
+      <c r="B77">
+        <v>24</v>
+      </c>
+      <c r="C77">
+        <v>8.18118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>2048</v>
+      </c>
+      <c r="B78">
+        <v>26</v>
+      </c>
+      <c r="C78">
+        <v>8.69242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>2048</v>
+      </c>
+      <c r="B79">
+        <v>28</v>
+      </c>
+      <c r="C79">
+        <v>7.94196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>2048</v>
+      </c>
+      <c r="B80">
+        <v>30</v>
+      </c>
+      <c r="C80">
+        <v>8.46637</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>2048</v>
+      </c>
+      <c r="B81">
+        <v>32</v>
+      </c>
+      <c r="C81">
+        <v>8.70282</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G2:W2">
+    <cfRule type="top10" dxfId="0" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:W3">
+    <cfRule type="top10" dxfId="0" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:W4">
+    <cfRule type="top10" dxfId="0" priority="3" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:W5">
+    <cfRule type="top10" dxfId="0" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:W6">
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>